--- a/06-03-2023/data/output/xlsx/Causality for Category/11.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/11.xlsx
@@ -49,69 +49,66 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__10</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
@@ -136,57 +133,57 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_decimals__0</t>
+    <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
@@ -247,36 +244,36 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_decimals__30</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_equals__6</t>
   </si>
   <si>
@@ -301,21 +298,21 @@
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_equals__14</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
@@ -349,7 +346,7 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
@@ -361,30 +358,30 @@
     <t>num_of_unknowns__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_unknowns__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_unknowns__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_unknowns__8</t>
   </si>
   <si>
@@ -400,45 +397,45 @@
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_unknowns__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>pairs_of_parentheses__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>pairs_of_parentheses__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>pairs_of_parentheses__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__7</t>
   </si>
   <si>
@@ -461,6 +458,9 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>

--- a/06-03-2023/data/output/xlsx/Causality for Category/11.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/11.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="156">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -52,55 +52,55 @@
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
@@ -142,46 +142,31 @@
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_decimals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__10</t>
@@ -250,7 +235,7 @@
     <t>num_of_equals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_equals__2</t>
@@ -259,30 +244,39 @@
     <t>num_of_equals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_equals__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_equals__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_equals__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_equals__9</t>
   </si>
   <si>
@@ -304,13 +298,13 @@
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__3</t>
@@ -358,30 +352,24 @@
     <t>num_of_unknowns__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_unknowns__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_unknowns__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_unknowns__8</t>
   </si>
   <si>
@@ -403,37 +391,37 @@
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>pairs_of_parentheses__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>pairs_of_parentheses__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>pairs_of_parentheses__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__6,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
   </si>
   <si>
     <t>pairs_of_parentheses__7</t>
@@ -657,28 +645,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.01123595505617977</c:v>
+                  <c:v>0.01838610827374872</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01210653753026634</c:v>
+                  <c:v>0.01815980629539951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02588996763754045</c:v>
+                  <c:v>0.03883495145631068</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02525252525252525</c:v>
+                  <c:v>0.04040404040404041</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0380952380952381</c:v>
+                  <c:v>0.05714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02531645569620253</c:v>
+                  <c:v>0.0379746835443038</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01923076923076923</c:v>
+                  <c:v>0.03846153846153846</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.025</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.04545454545454546</c:v>
@@ -738,7 +726,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 11</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -822,10 +810,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0267379679144385</c:v>
+                  <c:v>0.0374331550802139</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02112676056338028</c:v>
+                  <c:v>0.02816901408450704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,7 +870,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 11</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -946,10 +934,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$12</c:f>
+              <c:f>Equations!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -970,36 +958,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$12</c:f>
+              <c:f>Equations!$D$4:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.01103309929789368</c:v>
+                  <c:v>0.01805416248746239</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01009081735620585</c:v>
+                  <c:v>0.01715438950554995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01669758812615955</c:v>
+                  <c:v>0.02782931354359926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02034883720930233</c:v>
+                  <c:v>0.03197674418604651</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0196078431372549</c:v>
+                  <c:v>0.03431372549019608</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.007352941176470588</c:v>
+                  <c:v>0.02941176470588235</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0108695652173913</c:v>
+                  <c:v>0.03260869565217391</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.03703703703703703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,7 +1050,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 11</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1161,22 +1155,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.009646302250803859</c:v>
+                  <c:v>0.01286173633440514</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01219512195121951</c:v>
+                  <c:v>0.01422764227642276</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01095890410958904</c:v>
+                  <c:v>0.0136986301369863</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01185770750988142</c:v>
+                  <c:v>0.0158102766798419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01197604790419162</c:v>
+                  <c:v>0.01796407185628742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01587301587301587</c:v>
+                  <c:v>0.02380952380952381</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.01176470588235294</c:v>
@@ -1242,7 +1236,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 11</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1306,10 +1300,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$12</c:f>
+              <c:f>Unknowns!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1321,45 +1315,27 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$12</c:f>
+              <c:f>Unknowns!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.01102204408817635</c:v>
+                  <c:v>0.01803607214428858</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.007320644216691069</c:v>
+                  <c:v>0.01610541727672035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01052631578947368</c:v>
+                  <c:v>0.03157894736842105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01923076923076923</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04347826086956522</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.07142857142857142</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.09090909090909091</c:v>
+                  <c:v>0.03846153846153846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,7 +1392,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 11</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1512,7 +1488,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.01758793969849246</c:v>
+                  <c:v>0.02261306532663317</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02547770700636943</c:v>
@@ -1584,7 +1560,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 11</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2150,16 +2126,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01123595505617977</v>
+        <v>0.01838610827374872</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>0.02875948860071617</v>
+        <v>0.03489916700261931</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2173,16 +2149,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01210653753026634</v>
+        <v>0.01815980629539951</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>0.02459255659557442</v>
+        <v>0.02640453843686206</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2196,16 +2172,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02588996763754045</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1">
-        <v>-0.0002365212780563547</v>
+        <v>0.03157631211303586</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2219,16 +2195,16 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02525252525252525</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>-0.01118976284955343</v>
+        <v>0.009213344298298757</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2242,16 +2218,16 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0380952380952381</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="1">
-        <v>-0.000232176301858541</v>
+        <v>0.02219580102578482</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2265,16 +2241,16 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02531645569620253</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="1">
-        <v>-0.02821756297968512</v>
+        <v>-0.01962358815101034</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2288,16 +2264,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01923076923076923</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="1">
-        <v>-0.03068084039051095</v>
+        <v>-0.01768874600096684</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2311,16 +2287,16 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="1">
-        <v>-0.02669601495284312</v>
+        <v>-0.009280502069179198</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2337,13 +2313,13 @@
         <v>0.04545454545454546</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="1">
-        <v>-0.01250407400028274</v>
+        <v>-0.01734081136790319</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2360,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
@@ -2381,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
@@ -2402,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
@@ -2423,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
@@ -2444,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -2465,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
@@ -2486,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
@@ -2507,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
@@ -2528,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
@@ -2549,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
@@ -2567,10 +2543,10 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.009646302250803859</v>
+        <v>0.01286173633440514</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
@@ -2588,21 +2564,19 @@
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01219512195121951</v>
+        <v>0.01422764227642276</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01102204408817635</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="1">
-        <v>-0.02959854221462564</v>
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <v>365</v>
@@ -2611,10 +2585,10 @@
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01095890410958904</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
@@ -2623,7 +2597,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>253</v>
@@ -2632,21 +2606,19 @@
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01185770750988142</v>
+        <v>0.0158102766798419</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01102204408817635</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="1">
-        <v>-0.03831212162954434</v>
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1">
         <v>167</v>
@@ -2655,21 +2627,19 @@
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01197604790419162</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01102204408817635</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="1">
-        <v>-0.04431659243558676</v>
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1">
         <v>126</v>
@@ -2678,21 +2648,21 @@
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01587301587301587</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G27" s="1">
-        <v>-0.0376994084737671</v>
+        <v>-0.04884806826311609</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1">
         <v>85</v>
@@ -2704,18 +2674,16 @@
         <v>0.01176470588235294</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01102204408817635</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="1">
-        <v>-0.0341215231480245</v>
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1">
         <v>65</v>
@@ -2727,18 +2695,16 @@
         <v>0.01538461538461539</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01102204408817635</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="1">
-        <v>-0.02887076836720242</v>
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1">
         <v>41</v>
@@ -2750,18 +2716,18 @@
         <v>0.02439024390243903</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G30" s="1">
-        <v>-0.02389897940768683</v>
+        <v>-0.03636553908836195</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
         <v>31</v>
@@ -2773,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
@@ -2782,7 +2748,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1">
         <v>23</v>
@@ -2794,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
@@ -2803,7 +2769,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1">
         <v>15</v>
@@ -2815,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
@@ -2824,7 +2790,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
         <v>10</v>
@@ -2836,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
@@ -2845,7 +2811,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1">
         <v>7</v>
@@ -2857,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
@@ -2866,7 +2832,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
@@ -2878,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
@@ -2887,7 +2853,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1">
         <v>6</v>
@@ -2899,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
@@ -2908,7 +2874,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1">
         <v>5</v>
@@ -2920,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
@@ -2929,7 +2895,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -2941,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
@@ -2950,7 +2916,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -2962,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
@@ -2971,7 +2937,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -2983,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
@@ -2992,7 +2958,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -3004,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
@@ -3013,7 +2979,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -3025,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
@@ -3034,7 +3000,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -3046,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
@@ -3055,7 +3021,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -3067,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
@@ -3076,7 +3042,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -3088,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
@@ -3097,7 +3063,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -3109,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
@@ -3118,7 +3084,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -3130,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
@@ -3139,7 +3105,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -3151,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
@@ -3160,7 +3126,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -3172,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
@@ -3181,7 +3147,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -3193,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
@@ -3202,7 +3168,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1">
         <v>997</v>
@@ -3211,21 +3177,21 @@
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01103309929789368</v>
+        <v>0.01805416248746239</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G52" s="1">
-        <v>0.02792959716892565</v>
+        <v>0.03453196651862556</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B53" s="1">
         <v>991</v>
@@ -3234,10 +3200,10 @@
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01009081735620585</v>
+        <v>0.01715438950554995</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
@@ -3246,7 +3212,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B54" s="1">
         <v>539</v>
@@ -3255,21 +3221,21 @@
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0.01669758812615955</v>
+        <v>0.02782931354359926</v>
       </c>
       <c r="E54" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G54" s="1">
-        <v>-0.001671299166640461</v>
+        <v>-0.003393083937678842</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B55" s="1">
         <v>344</v>
@@ -3278,21 +3244,21 @@
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0.02034883720930233</v>
+        <v>0.03197674418604651</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G55" s="1">
-        <v>0.01182608961958594</v>
+        <v>-0.001715620465757622</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B56" s="1">
         <v>204</v>
@@ -3301,21 +3267,21 @@
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0.0196078431372549</v>
+        <v>0.03431372549019608</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G56" s="1">
-        <v>-0.09731035196330749</v>
+        <v>-0.1145793718298083</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B57" s="1">
         <v>136</v>
@@ -3324,19 +3290,21 @@
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0.007352941176470588</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="E57" s="1">
-        <v>0.01102204408817635</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>28</v>
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="1">
+        <v>-0.09495003740153658</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B58" s="1">
         <v>92</v>
@@ -3345,19 +3313,21 @@
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.0108695652173913</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="E58" s="1">
-        <v>0.01102204408817635</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1" t="s">
-        <v>28</v>
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="1">
+        <v>-0.04635561286031425</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B59" s="1">
         <v>54</v>
@@ -3366,19 +3336,21 @@
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E59" s="1">
-        <v>0.01102204408817635</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1" t="s">
-        <v>28</v>
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59" s="1">
+        <v>-0.02543995721038572</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B60" s="1">
         <v>35</v>
@@ -3390,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
@@ -3399,7 +3371,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B61" s="1">
         <v>17</v>
@@ -3411,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
@@ -3420,7 +3392,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B62" s="1">
         <v>9</v>
@@ -3432,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
@@ -3441,7 +3413,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -3453,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -3462,7 +3434,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3474,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -3483,7 +3455,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -3495,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -3504,7 +3476,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B66" s="1">
         <v>187</v>
@@ -3513,21 +3485,21 @@
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.0267379679144385</v>
+        <v>0.0374331550802139</v>
       </c>
       <c r="E66" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G66" s="1">
-        <v>-0.004883366598854983</v>
+        <v>-0.007201209229116713</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B67" s="1">
         <v>142</v>
@@ -3536,21 +3508,21 @@
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.02112676056338028</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="E67" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G67" s="1">
-        <v>-0.01533278285005589</v>
+        <v>-0.01944428288828434</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B68" s="1">
         <v>93</v>
@@ -3562,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
@@ -3571,7 +3543,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B69" s="1">
         <v>73</v>
@@ -3583,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
@@ -3592,7 +3564,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B70" s="1">
         <v>54</v>
@@ -3604,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
@@ -3613,7 +3585,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B71" s="1">
         <v>37</v>
@@ -3625,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
@@ -3634,7 +3606,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B72" s="1">
         <v>22</v>
@@ -3646,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
@@ -3655,7 +3627,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B73" s="1">
         <v>17</v>
@@ -3667,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
@@ -3676,7 +3648,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B74" s="1">
         <v>11</v>
@@ -3688,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
@@ -3697,7 +3669,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B75" s="1">
         <v>8</v>
@@ -3709,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
@@ -3718,7 +3690,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B76" s="1">
         <v>5</v>
@@ -3730,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
@@ -3739,7 +3711,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B77" s="1">
         <v>3</v>
@@ -3751,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
@@ -3760,7 +3732,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -3772,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
@@ -3781,7 +3753,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -3793,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
@@ -3802,7 +3774,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B80" s="1">
         <v>998</v>
@@ -3811,10 +3783,10 @@
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="E80" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
@@ -3823,7 +3795,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B81" s="1">
         <v>683</v>
@@ -3832,10 +3804,10 @@
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.007320644216691069</v>
+        <v>0.01610541727672035</v>
       </c>
       <c r="E81" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
@@ -3844,7 +3816,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B82" s="1">
         <v>95</v>
@@ -3853,19 +3825,21 @@
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0.01052631578947368</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="E82" s="1">
-        <v>0.01102204408817635</v>
-      </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1" t="s">
-        <v>28</v>
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G82" s="1">
+        <v>-0.02804082361458874</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B83" s="1">
         <v>52</v>
@@ -3874,21 +3848,21 @@
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0.01923076923076923</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E83" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G83" s="1">
-        <v>-0.0132374842093287</v>
+        <v>-0.02002713336015333</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B84" s="1">
         <v>23</v>
@@ -3897,21 +3871,19 @@
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>0.01102204408817635</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G84" s="1">
-        <v>-0.0007958113057577083</v>
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
@@ -3920,21 +3892,19 @@
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>0.01102204408817635</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0.00952825064446087</v>
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B86" s="1">
         <v>11</v>
@@ -3943,21 +3913,19 @@
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>0.01102204408817635</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0.01720298868653663</v>
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B87" s="1">
         <v>7</v>
@@ -3969,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
@@ -3978,7 +3946,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B88" s="1">
         <v>5</v>
@@ -3990,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
@@ -3999,7 +3967,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -4011,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
@@ -4020,7 +3988,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B90" s="1">
         <v>2</v>
@@ -4032,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
@@ -4041,7 +4009,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -4053,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
@@ -4062,7 +4030,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -4074,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
@@ -4083,7 +4051,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B93" s="1">
         <v>398</v>
@@ -4092,21 +4060,21 @@
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.01758793969849246</v>
+        <v>0.02261306532663317</v>
       </c>
       <c r="E93" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G93" s="1">
-        <v>-0.006465563195502217</v>
+        <v>-0.03473468946533968</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B94" s="1">
         <v>157</v>
@@ -4118,18 +4086,18 @@
         <v>0.02547770700636943</v>
       </c>
       <c r="E94" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G94" s="1">
-        <v>-0.002697533764902375</v>
+        <v>-0.02754606107145028</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B95" s="1">
         <v>75</v>
@@ -4141,18 +4109,18 @@
         <v>0.04</v>
       </c>
       <c r="E95" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G95" s="1">
-        <v>-0.0127459581115353</v>
+        <v>-0.01675947476135607</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B96" s="1">
         <v>43</v>
@@ -4164,18 +4132,18 @@
         <v>0.02325581395348837</v>
       </c>
       <c r="E96" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G96" s="1">
-        <v>-0.01538232128781587</v>
+        <v>-0.02214585551055976</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B97" s="1">
         <v>25</v>
@@ -4187,18 +4155,18 @@
         <v>0.04</v>
       </c>
       <c r="E97" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G97" s="1">
-        <v>-0.004237510904387765</v>
+        <v>-0.008378292086660966</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B98" s="1">
         <v>17</v>
@@ -4210,18 +4178,18 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="E98" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G98" s="1">
-        <v>0.005720491545113085</v>
+        <v>0.00372610405105468</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B99" s="1">
         <v>8</v>
@@ -4233,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
@@ -4242,7 +4210,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B100" s="1">
         <v>4</v>
@@ -4254,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
@@ -4263,7 +4231,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B101" s="1">
         <v>3</v>
@@ -4275,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
@@ -4284,7 +4252,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B102" s="1">
         <v>3</v>
@@ -4296,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
@@ -4305,7 +4273,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
@@ -4317,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
@@ -4326,7 +4294,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -4338,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
@@ -4347,7 +4315,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -4359,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
@@ -4368,7 +4336,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -4380,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
@@ -4389,7 +4357,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -4401,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
@@ -4426,7 +4394,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4449,25 +4417,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4481,13 +4449,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.01123595505617977</v>
+        <v>0.01838610827374872</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0002139109680034217</v>
+        <v>0.0003500361294601455</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4524,13 +4492,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.01210653753026634</v>
+        <v>0.01815980629539951</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F5" s="1">
-        <v>0.00108449344208999</v>
+        <v>0.0001237341511109366</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4567,13 +4535,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.02588996763754045</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0148679235493641</v>
+        <v>0.0207988793120221</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4610,13 +4578,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.02525252525252525</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="E7" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F7" s="1">
-        <v>0.0142304811643489</v>
+        <v>0.02236796825975183</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -4653,13 +4621,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.0380952380952381</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="E8" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F8" s="1">
-        <v>0.02707319400706175</v>
+        <v>0.03910678499856857</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -4696,13 +4664,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.02531645569620253</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="E9" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F9" s="1">
-        <v>0.01429441160802618</v>
+        <v>0.01993861140001522</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -4739,13 +4707,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.01923076923076923</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E10" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F10" s="1">
-        <v>0.008208725142592879</v>
+        <v>0.02042546631724989</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -4782,13 +4750,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
       <c r="E11" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F11" s="1">
-        <v>0.01397795591182365</v>
+        <v>0.03196392785571142</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -4828,10 +4796,10 @@
         <v>0.04545454545454546</v>
       </c>
       <c r="E12" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F12" s="1">
-        <v>0.03443250136636911</v>
+        <v>0.02741847331025688</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -4876,7 +4844,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4899,30 +4867,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -4931,13 +4899,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0267379679144385</v>
+        <v>0.0374331550802139</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F4" s="1">
-        <v>0.01571592382626215</v>
+        <v>0.01939708293592532</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4965,7 +4933,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -4974,13 +4942,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.02112676056338028</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F5" s="1">
-        <v>0.01010471647520393</v>
+        <v>0.01013294194021847</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5014,7 +4982,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5025,7 +4993,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5048,30 +5016,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -5080,13 +5048,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.01103309929789368</v>
+        <v>0.01805416248746239</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F4" s="1">
-        <v>1.105520971732797E-05</v>
+        <v>1.809034317381067E-05</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5114,7 +5082,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -5123,13 +5091,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.01009081735620585</v>
+        <v>0.01715438950554995</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.0009312267319705001</v>
+        <v>-0.0008816826387386296</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5157,7 +5125,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3">
         <v>539</v>
@@ -5166,13 +5134,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.01669758812615955</v>
+        <v>0.02782931354359926</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F6" s="1">
-        <v>0.005675544037983201</v>
+        <v>0.009793241399310679</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5200,7 +5168,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3">
         <v>344</v>
@@ -5209,13 +5177,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.02034883720930233</v>
+        <v>0.03197674418604651</v>
       </c>
       <c r="E7" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F7" s="1">
-        <v>0.009326793121125974</v>
+        <v>0.01394067204175794</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5243,7 +5211,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3">
         <v>204</v>
@@ -5252,13 +5220,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.0196078431372549</v>
+        <v>0.03431372549019608</v>
       </c>
       <c r="E8" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F8" s="1">
-        <v>0.008585799049078548</v>
+        <v>0.0162776533459075</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5286,7 +5254,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B9" s="3">
         <v>136</v>
@@ -5295,13 +5263,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.007352941176470588</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="E9" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F9" s="1">
-        <v>-0.003669102911705765</v>
+        <v>0.01137569256159377</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5329,7 +5297,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3">
         <v>92</v>
@@ -5338,13 +5306,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.0108695652173913</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="E10" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.0001524788707850493</v>
+        <v>0.01457262350788533</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5367,6 +5335,49 @@
       </c>
       <c r="L10" s="1">
         <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="3">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.01900096489274846</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
         <v>0</v>
       </c>
     </row>
@@ -5389,7 +5400,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5412,25 +5423,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5444,13 +5455,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.009646302250803859</v>
+        <v>0.01286173633440514</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.001375741837372494</v>
+        <v>-0.005174335809883433</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5487,13 +5498,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.01219512195121951</v>
+        <v>0.01422764227642276</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F5" s="1">
-        <v>0.001173077863043159</v>
+        <v>-0.003808429867865814</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5521,7 +5532,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3">
         <v>365</v>
@@ -5530,13 +5541,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.01095890410958904</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F6" s="1">
-        <v>-6.313997858731213E-05</v>
+        <v>-0.004337442007302277</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5564,7 +5575,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3">
         <v>253</v>
@@ -5573,13 +5584,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.01185770750988142</v>
+        <v>0.0158102766798419</v>
       </c>
       <c r="E7" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F7" s="1">
-        <v>0.0008356634217050688</v>
+        <v>-0.002225795464446682</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5607,7 +5618,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3">
         <v>167</v>
@@ -5616,13 +5627,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.01197604790419162</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="E8" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F8" s="1">
-        <v>0.0009540038160152642</v>
+        <v>-7.200028800115332E-05</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5650,7 +5661,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3">
         <v>126</v>
@@ -5659,13 +5670,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.01587301587301587</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="E9" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F9" s="1">
-        <v>0.004850971784839519</v>
+        <v>0.00577345166523523</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5693,7 +5704,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3">
         <v>85</v>
@@ -5705,10 +5716,10 @@
         <v>0.01176470588235294</v>
       </c>
       <c r="E10" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0007426617941765877</v>
+        <v>-0.006271366261935637</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5736,7 +5747,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3">
         <v>65</v>
@@ -5748,10 +5759,10 @@
         <v>0.01538461538461539</v>
       </c>
       <c r="E11" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F11" s="1">
-        <v>0.004362571296439032</v>
+        <v>-0.002651456759673192</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -5779,7 +5790,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B12" s="3">
         <v>41</v>
@@ -5791,10 +5802,10 @@
         <v>0.02439024390243903</v>
       </c>
       <c r="E12" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F12" s="1">
-        <v>0.01336819981426267</v>
+        <v>0.006354171758150447</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -5828,7 +5839,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5839,7 +5850,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5862,30 +5873,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -5894,10 +5905,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -5928,7 +5939,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -5937,13 +5948,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.007320644216691069</v>
+        <v>0.01610541727672035</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.003701399871485284</v>
+        <v>-0.001930654867568226</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5971,7 +5982,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" s="3">
         <v>95</v>
@@ -5980,13 +5991,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.01052631578947368</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.0004957282987026693</v>
+        <v>0.01354287522413248</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6014,7 +6025,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="3">
         <v>52</v>
@@ -6023,13 +6034,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.01923076923076923</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E7" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F7" s="1">
-        <v>0.008208725142592879</v>
+        <v>0.02042546631724989</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6052,135 +6063,6 @@
       </c>
       <c r="L7" s="1">
         <f>MIN(K7,1-D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="3">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.01102204408817635</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.03245621678138887</v>
-      </c>
-      <c r="G8" s="1">
-        <f>1/(POWER(B8,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>MIN(K8,1-D8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="3">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.01102204408817635</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.06040652734039507</v>
-      </c>
-      <c r="G9" s="1">
-        <f>1/(POWER(B9,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <f>G9*H9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K9" s="1">
-        <f>I9*J9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <f>MIN(K9,1-D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="3">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.01102204408817635</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.07988704682091456</v>
-      </c>
-      <c r="G10" s="1">
-        <f>1/(POWER(B10,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <f>G10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K10" s="1">
-        <f>I10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>MIN(K10,1-D10)</f>
         <v>0</v>
       </c>
     </row>
@@ -6203,7 +6085,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6226,30 +6108,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -6258,13 +6140,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.01758793969849246</v>
+        <v>0.02261306532663317</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F4" s="1">
-        <v>0.006565895610316109</v>
+        <v>0.004576993182344589</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6292,7 +6174,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -6304,10 +6186,10 @@
         <v>0.02547770700636943</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F5" s="1">
-        <v>0.01445566291819307</v>
+        <v>0.00744163486208085</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6335,7 +6217,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B6" s="3">
         <v>75</v>
@@ -6347,10 +6229,10 @@
         <v>0.04</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F6" s="1">
-        <v>0.02897795591182365</v>
+        <v>0.02196392785571142</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6378,7 +6260,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B7" s="3">
         <v>43</v>
@@ -6390,10 +6272,10 @@
         <v>0.02325581395348837</v>
       </c>
       <c r="E7" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F7" s="1">
-        <v>0.01223376986531202</v>
+        <v>0.005219741809199794</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6421,7 +6303,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B8" s="3">
         <v>25</v>
@@ -6433,10 +6315,10 @@
         <v>0.04</v>
       </c>
       <c r="E8" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F8" s="1">
-        <v>0.02897795591182365</v>
+        <v>0.02196392785571142</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -6464,7 +6346,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B9" s="3">
         <v>17</v>
@@ -6476,10 +6358,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="E9" s="3">
-        <v>0.01102204408817635</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="F9" s="1">
-        <v>0.04780148532358836</v>
+        <v>0.04078745726747612</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
